--- a/Modelos em Python/resultados_erros_gru.xlsx
+++ b/Modelos em Python/resultados_erros_gru.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32.62291290628836</v>
+        <v>31.83077919754895</v>
       </c>
       <c r="D2" t="n">
-        <v>1.331970912855881</v>
+        <v>1.293073503525696</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4636203463995443</v>
+        <v>0.453675854312317</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>98.36434641826557</v>
+        <v>98.26081082286228</v>
       </c>
       <c r="D3" t="n">
-        <v>6.730999999748287</v>
+        <v>6.717877887654583</v>
       </c>
       <c r="E3" t="n">
-        <v>2.035537683129628</v>
+        <v>2.032628719086039</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>124.2998622540721</v>
+        <v>124.827413530305</v>
       </c>
       <c r="D4" t="n">
-        <v>11.44465608295952</v>
+        <v>11.57559551992962</v>
       </c>
       <c r="E4" t="n">
-        <v>3.424074457221901</v>
+        <v>3.463902903545787</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>141.6508226598544</v>
+        <v>142.9636233206338</v>
       </c>
       <c r="D5" t="n">
-        <v>16.93983666257595</v>
+        <v>17.49340880234705</v>
       </c>
       <c r="E5" t="n">
-        <v>5.045078000432514</v>
+        <v>5.20994542731193</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>28.11499696404787</v>
+        <v>27.47354758893784</v>
       </c>
       <c r="D6" t="n">
-        <v>1.144873462120692</v>
+        <v>1.11379615519986</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4262027421667934</v>
+        <v>0.4161063110238452</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>95.34564387458644</v>
+        <v>95.36811186456569</v>
       </c>
       <c r="D7" t="n">
-        <v>6.5524301173109</v>
+        <v>6.555108843969577</v>
       </c>
       <c r="E7" t="n">
-        <v>1.948854517206779</v>
+        <v>1.947037319738204</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>121.9945251273074</v>
+        <v>122.6386744190469</v>
       </c>
       <c r="D8" t="n">
-        <v>11.28091551950484</v>
+        <v>11.43472136204893</v>
       </c>
       <c r="E8" t="n">
-        <v>3.304415840341603</v>
+        <v>3.345024049367051</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>139.8594689186407</v>
+        <v>141.292490455585</v>
       </c>
       <c r="D9" t="n">
-        <v>16.79975458401622</v>
+        <v>17.38626927661173</v>
       </c>
       <c r="E9" t="n">
-        <v>4.889063889556666</v>
+        <v>5.052725200109398</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>24.30266532643418</v>
+        <v>23.81760647954354</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9709081336823425</v>
+        <v>0.9490210712605314</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3160884641393743</v>
+        <v>0.3088981314803057</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>94.82153546530299</v>
+        <v>94.96779976858667</v>
       </c>
       <c r="D11" t="n">
-        <v>6.418505864854992</v>
+        <v>6.437960546650399</v>
       </c>
       <c r="E11" t="n">
-        <v>1.850053620639667</v>
+        <v>1.853956528099332</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>122.230808321591</v>
+        <v>122.9719213153022</v>
       </c>
       <c r="D12" t="n">
-        <v>11.20498377656105</v>
+        <v>11.38219596812408</v>
       </c>
       <c r="E12" t="n">
-        <v>3.210124691579917</v>
+        <v>3.258251390680577</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>140.4000861529645</v>
+        <v>141.9094854232939</v>
       </c>
       <c r="D13" t="n">
-        <v>16.80586087145317</v>
+        <v>17.42891516392007</v>
       </c>
       <c r="E13" t="n">
-        <v>4.802541798699492</v>
+        <v>4.976646159206503</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>29.68099005030098</v>
+        <v>28.92584619578472</v>
       </c>
       <c r="D14" t="n">
-        <v>1.203288231307461</v>
+        <v>1.167036162095237</v>
       </c>
       <c r="E14" t="n">
-        <v>0.425837205765535</v>
+        <v>0.4168510221114</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>96.82376489017268</v>
+        <v>96.74724355603831</v>
       </c>
       <c r="D15" t="n">
-        <v>6.614298746823282</v>
+        <v>6.605463032594451</v>
       </c>
       <c r="E15" t="n">
-        <v>1.977817425883728</v>
+        <v>1.976204500159876</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>123.2561479920508</v>
+        <v>123.810324391863</v>
       </c>
       <c r="D16" t="n">
-        <v>11.34631154339929</v>
+        <v>11.48290257065215</v>
       </c>
       <c r="E16" t="n">
-        <v>3.353652425328687</v>
+        <v>3.394652245623142</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>140.9118753949379</v>
+        <v>142.2574892519528</v>
       </c>
       <c r="D17" t="n">
-        <v>16.86768665481908</v>
+        <v>17.43021909540837</v>
       </c>
       <c r="E17" t="n">
-        <v>4.961065316629729</v>
+        <v>5.126467639703429</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_gru.xlsx
+++ b/Modelos em Python/resultados_erros_gru.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31.83077919754895</v>
+        <v>30.17154384660468</v>
       </c>
       <c r="D2" t="n">
-        <v>1.293073503525696</v>
+        <v>1.210676979927145</v>
       </c>
       <c r="E2" t="n">
-        <v>0.453675854312317</v>
+        <v>0.4291113537775472</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>98.26081082286228</v>
+        <v>84.92706044356683</v>
       </c>
       <c r="D3" t="n">
-        <v>6.717877887654583</v>
+        <v>5.122903032234722</v>
       </c>
       <c r="E3" t="n">
-        <v>2.032628719086039</v>
+        <v>1.561912321301066</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>124.827413530305</v>
+        <v>99.91497989661156</v>
       </c>
       <c r="D4" t="n">
-        <v>11.57559551992962</v>
+        <v>6.941403134092739</v>
       </c>
       <c r="E4" t="n">
-        <v>3.463902903545787</v>
+        <v>2.096411120958722</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>142.9636233206338</v>
+        <v>97.80774752792327</v>
       </c>
       <c r="D5" t="n">
-        <v>17.49340880234705</v>
+        <v>6.653940428203633</v>
       </c>
       <c r="E5" t="n">
-        <v>5.20994542731193</v>
+        <v>2.011968226828392</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27.47354758893784</v>
+        <v>25.86349271420872</v>
       </c>
       <c r="D6" t="n">
-        <v>1.11379615519986</v>
+        <v>1.035426553632274</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4161063110238452</v>
+        <v>0.3977915386774553</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>95.36811186456569</v>
+        <v>81.89484872039201</v>
       </c>
       <c r="D7" t="n">
-        <v>6.555108843969577</v>
+        <v>4.975565236084389</v>
       </c>
       <c r="E7" t="n">
-        <v>1.947037319738204</v>
+        <v>1.498390764547158</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>122.6386744190469</v>
+        <v>97.30497740833052</v>
       </c>
       <c r="D8" t="n">
-        <v>11.43472136204893</v>
+        <v>6.814910361802939</v>
       </c>
       <c r="E8" t="n">
-        <v>3.345024049367051</v>
+        <v>2.02428102662896</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>141.292490455585</v>
+        <v>95.24419370385675</v>
       </c>
       <c r="D9" t="n">
-        <v>17.38626927661173</v>
+        <v>6.538069547848268</v>
       </c>
       <c r="E9" t="n">
-        <v>5.052725200109398</v>
+        <v>1.945265193824008</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23.81760647954354</v>
+        <v>22.35484205158406</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9490210712605314</v>
+        <v>0.8813474566588476</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3088981314803057</v>
+        <v>0.2918018993848686</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>94.96779976858667</v>
+        <v>81.7661071692952</v>
       </c>
       <c r="D11" t="n">
-        <v>6.437960546650399</v>
+        <v>4.918006444938303</v>
       </c>
       <c r="E11" t="n">
-        <v>1.853956528099332</v>
+        <v>1.423886025651552</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>122.9719213153022</v>
+        <v>97.96095267442323</v>
       </c>
       <c r="D12" t="n">
-        <v>11.38219596812408</v>
+        <v>6.834619942703538</v>
       </c>
       <c r="E12" t="n">
-        <v>3.258251390680577</v>
+        <v>1.967845047331209</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>141.9094854232939</v>
+        <v>96.24130717621725</v>
       </c>
       <c r="D13" t="n">
-        <v>17.42891516392007</v>
+        <v>6.603000481793564</v>
       </c>
       <c r="E13" t="n">
-        <v>4.976646159206503</v>
+        <v>1.902040856045591</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>28.92584619578472</v>
+        <v>27.40867822586782</v>
       </c>
       <c r="D14" t="n">
-        <v>1.167036162095237</v>
+        <v>1.093074743184618</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4168510221114</v>
+        <v>0.3958198800748794</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>96.74724355603831</v>
+        <v>83.4846968744387</v>
       </c>
       <c r="D15" t="n">
-        <v>6.605463032594451</v>
+        <v>5.040338865451457</v>
       </c>
       <c r="E15" t="n">
-        <v>1.976204500159876</v>
+        <v>1.521128685307764</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>123.810324391863</v>
+        <v>98.84011357486877</v>
       </c>
       <c r="D16" t="n">
-        <v>11.48290257065215</v>
+        <v>6.886044142309655</v>
       </c>
       <c r="E16" t="n">
-        <v>3.394652245623142</v>
+        <v>2.05664926820135</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>142.2574892519528</v>
+        <v>96.83095476324868</v>
       </c>
       <c r="D17" t="n">
-        <v>17.43021909540837</v>
+        <v>6.613782413104043</v>
       </c>
       <c r="E17" t="n">
-        <v>5.126467639703429</v>
+        <v>1.97773036092393</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_gru.xlsx
+++ b/Modelos em Python/resultados_erros_gru.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30.17154384660468</v>
+        <v>27.82800802896606</v>
       </c>
       <c r="D2" t="n">
-        <v>1.210676979927145</v>
+        <v>1.09890669619855</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4291113537775472</v>
+        <v>0.3987368892425576</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>84.92706044356683</v>
+        <v>82.66282595053561</v>
       </c>
       <c r="D3" t="n">
-        <v>5.122903032234722</v>
+        <v>4.888779677794309</v>
       </c>
       <c r="E3" t="n">
-        <v>1.561912321301066</v>
+        <v>1.493383762901638</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>99.91497989661156</v>
+        <v>97.18632764329273</v>
       </c>
       <c r="D4" t="n">
-        <v>6.941403134092739</v>
+        <v>6.571109404830255</v>
       </c>
       <c r="E4" t="n">
-        <v>2.096411120958722</v>
+        <v>1.987692736977784</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>97.80774752792327</v>
+        <v>93.89095867008335</v>
       </c>
       <c r="D5" t="n">
-        <v>6.653940428203633</v>
+        <v>6.149612931079155</v>
       </c>
       <c r="E5" t="n">
-        <v>2.011968226828392</v>
+        <v>1.863878140061721</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25.86349271420872</v>
+        <v>23.49550509948745</v>
       </c>
       <c r="D6" t="n">
-        <v>1.035426553632274</v>
+        <v>0.9241227979009802</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3977915386774553</v>
+        <v>0.3695359990402943</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>81.89484872039201</v>
+        <v>79.60522990827747</v>
       </c>
       <c r="D7" t="n">
-        <v>4.975565236084389</v>
+        <v>4.741897424603954</v>
       </c>
       <c r="E7" t="n">
-        <v>1.498390764547158</v>
+        <v>1.431465195119947</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>97.30497740833052</v>
+        <v>94.54655207776682</v>
       </c>
       <c r="D8" t="n">
-        <v>6.814910361802939</v>
+        <v>6.445271676056313</v>
       </c>
       <c r="E8" t="n">
-        <v>2.02428102662896</v>
+        <v>1.918239809607645</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>95.24419370385675</v>
+        <v>91.29011756963592</v>
       </c>
       <c r="D9" t="n">
-        <v>6.538069547848268</v>
+        <v>6.034808860222499</v>
       </c>
       <c r="E9" t="n">
-        <v>1.945265193824008</v>
+        <v>1.801296100641854</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>22.35484205158406</v>
+        <v>19.9633837966481</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8813474566588476</v>
+        <v>0.7747094271489479</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2918018993848686</v>
+        <v>0.2632548314233861</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>81.7661071692952</v>
+        <v>79.48485302760754</v>
       </c>
       <c r="D11" t="n">
-        <v>4.918006444938303</v>
+        <v>4.689307515008258</v>
       </c>
       <c r="E11" t="n">
-        <v>1.423886025651552</v>
+        <v>1.358496166991664</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>97.96095267442323</v>
+        <v>95.20827349367946</v>
       </c>
       <c r="D12" t="n">
-        <v>6.834619942703538</v>
+        <v>6.466862363623119</v>
       </c>
       <c r="E12" t="n">
-        <v>1.967845047331209</v>
+        <v>1.862809717686754</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>96.24130717621725</v>
+        <v>92.26077006255086</v>
       </c>
       <c r="D13" t="n">
-        <v>6.603000481793564</v>
+        <v>6.094505026319708</v>
       </c>
       <c r="E13" t="n">
-        <v>1.902040856045591</v>
+        <v>1.75708525718054</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>27.40867822586782</v>
+        <v>25.04434704396029</v>
       </c>
       <c r="D14" t="n">
-        <v>1.093074743184618</v>
+        <v>0.9824063376204563</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3958198800748794</v>
+        <v>0.3668448057167083</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>83.4846968744387</v>
+        <v>81.20504995242416</v>
       </c>
       <c r="D15" t="n">
-        <v>5.040338865451457</v>
+        <v>4.807138864430956</v>
       </c>
       <c r="E15" t="n">
-        <v>1.521128685307764</v>
+        <v>1.453893152346207</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>98.84011357486877</v>
+        <v>96.09446717570196</v>
       </c>
       <c r="D16" t="n">
-        <v>6.886044142309655</v>
+        <v>6.516086065275714</v>
       </c>
       <c r="E16" t="n">
-        <v>2.05664926820135</v>
+        <v>1.949597959159398</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>96.83095476324868</v>
+        <v>92.88890700168575</v>
       </c>
       <c r="D17" t="n">
-        <v>6.613782413104043</v>
+        <v>6.108683639488839</v>
       </c>
       <c r="E17" t="n">
-        <v>1.97773036092393</v>
+        <v>1.831589844812459</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_gru.xlsx
+++ b/Modelos em Python/resultados_erros_gru.xlsx
@@ -472,13 +472,15 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27.82800802896606</v>
+        <v>12.7718473770341</v>
       </c>
       <c r="D2" t="n">
-        <v>1.09890669619855</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.3987368892425576</v>
+        <v>16.12596112890302</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -493,13 +495,15 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>82.66282595053561</v>
+        <v>11.01211239364573</v>
       </c>
       <c r="D3" t="n">
-        <v>4.888779677794309</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.493383762901638</v>
+        <v>13.95506509675999</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -514,13 +518,15 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>97.18632764329273</v>
+        <v>10.76732797580902</v>
       </c>
       <c r="D4" t="n">
-        <v>6.571109404830255</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.987692736977784</v>
+        <v>13.68930626692451</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -535,13 +541,15 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>93.89095867008335</v>
+        <v>15.77200126501767</v>
       </c>
       <c r="D5" t="n">
-        <v>6.149612931079155</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.863878140061721</v>
+        <v>21.0695053714356</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -556,13 +564,15 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23.49550509948745</v>
+        <v>58.87236973488866</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9241227979009802</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.3695359990402943</v>
+        <v>56.70619365747172</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -577,13 +587,15 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>79.60522990827747</v>
+        <v>56.06545229683037</v>
       </c>
       <c r="D7" t="n">
-        <v>4.741897424603954</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.431465195119947</v>
+        <v>54.11115667072316</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -598,13 +610,15 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>94.54655207776682</v>
+        <v>53.70177969252565</v>
       </c>
       <c r="D8" t="n">
-        <v>6.445271676056313</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.918239809607645</v>
+        <v>52.15350362796537</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -619,13 +633,15 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>91.29011756963592</v>
+        <v>52.59907053304107</v>
       </c>
       <c r="D9" t="n">
-        <v>6.034808860222499</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.801296100641854</v>
+        <v>53.57829716971361</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -640,13 +656,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19.9633837966481</v>
+        <v>7.713749724847865</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7747094271489479</v>
+        <v>10.56860651510964</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2632548314233861</v>
+        <v>0.1027473708439247</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +677,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>79.48485302760754</v>
+        <v>9.88979117013877</v>
       </c>
       <c r="D11" t="n">
-        <v>4.689307515008258</v>
+        <v>13.76132890411925</v>
       </c>
       <c r="E11" t="n">
-        <v>1.358496166991664</v>
+        <v>0.1319947699066707</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +698,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>95.20827349367946</v>
+        <v>13.44469023941045</v>
       </c>
       <c r="D12" t="n">
-        <v>6.466862363623119</v>
+        <v>19.19000924936515</v>
       </c>
       <c r="E12" t="n">
-        <v>1.862809717686754</v>
+        <v>0.1732023059974047</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +719,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>92.26077006255086</v>
+        <v>21.91838663752587</v>
       </c>
       <c r="D13" t="n">
-        <v>6.094505026319708</v>
+        <v>33.06011150167195</v>
       </c>
       <c r="E13" t="n">
-        <v>1.75708525718054</v>
+        <v>0.2721611431097039</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +740,15 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>25.04434704396029</v>
+        <v>27.00578038334248</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9824063376204563</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.3668448057167083</v>
+        <v>29.38631743688812</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -745,13 +763,15 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>81.20504995242416</v>
+        <v>27.14744542918005</v>
       </c>
       <c r="D15" t="n">
-        <v>4.807138864430956</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1.453893152346207</v>
+        <v>30.21180489343276</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -766,13 +786,15 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>96.09446717570196</v>
+        <v>28.20333766505286</v>
       </c>
       <c r="D16" t="n">
-        <v>6.516086065275714</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1.949597959159398</v>
+        <v>32.44831740619655</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -787,13 +809,15 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>92.88890700168575</v>
+        <v>33.05050040370692</v>
       </c>
       <c r="D17" t="n">
-        <v>6.108683639488839</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.831589844812459</v>
+        <v>41.43349602763438</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_gru.xlsx
+++ b/Modelos em Python/resultados_erros_gru.xlsx
@@ -472,15 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12.7718473770341</v>
+        <v>30.54059320237301</v>
       </c>
       <c r="D2" t="n">
-        <v>16.12596112890302</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>1.228841490949666</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.4351497595535802</v>
       </c>
     </row>
     <row r="3">
@@ -495,15 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11.01211239364573</v>
+        <v>84.90143130359819</v>
       </c>
       <c r="D3" t="n">
-        <v>13.95506509675999</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>5.121037967311935</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.562405698010106</v>
       </c>
     </row>
     <row r="4">
@@ -518,15 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10.76732797580902</v>
+        <v>99.58185432941721</v>
       </c>
       <c r="D4" t="n">
-        <v>13.68930626692451</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>6.896150302989961</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.084137334744235</v>
       </c>
     </row>
     <row r="5">
@@ -541,15 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15.77200126501767</v>
+        <v>97.07998675015136</v>
       </c>
       <c r="D5" t="n">
-        <v>21.0695053714356</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>6.558210006026544</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.98458572697895</v>
       </c>
     </row>
     <row r="6">
@@ -564,15 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>58.87236973488866</v>
+        <v>26.09839018985168</v>
       </c>
       <c r="D6" t="n">
-        <v>56.70619365747172</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>1.046888454574527</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.401654651464282</v>
       </c>
     </row>
     <row r="7">
@@ -587,15 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>56.06545229683037</v>
+        <v>81.75188874831058</v>
       </c>
       <c r="D7" t="n">
-        <v>54.11115667072316</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>4.961255529251965</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.495208276832587</v>
       </c>
     </row>
     <row r="8">
@@ -610,15 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>53.70177969252565</v>
+        <v>96.85839712280588</v>
       </c>
       <c r="D8" t="n">
-        <v>52.15350362796537</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>6.754451672777985</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.007943520402044</v>
       </c>
     </row>
     <row r="9">
@@ -633,15 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>52.59907053304107</v>
+        <v>94.39150120947082</v>
       </c>
       <c r="D9" t="n">
-        <v>53.57829716971361</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>6.427064206925306</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.914416663937868</v>
       </c>
     </row>
     <row r="10">
@@ -656,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7.713749724847865</v>
+        <v>22.67756000276502</v>
       </c>
       <c r="D10" t="n">
-        <v>10.56860651510964</v>
+        <v>0.8959507473413723</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1027473708439247</v>
+        <v>0.2946726842159823</v>
       </c>
     </row>
     <row r="11">
@@ -677,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9.88979117013877</v>
+        <v>81.68063689953493</v>
       </c>
       <c r="D11" t="n">
-        <v>13.76132890411925</v>
+        <v>4.909030480971784</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1319947699066707</v>
+        <v>1.420328175592844</v>
       </c>
     </row>
     <row r="12">
@@ -698,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>13.44469023941045</v>
+        <v>97.56718032637512</v>
       </c>
       <c r="D12" t="n">
-        <v>19.19000924936515</v>
+        <v>6.780445051998355</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1732023059974047</v>
+        <v>1.951253697491332</v>
       </c>
     </row>
     <row r="13">
@@ -719,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>21.91838663752587</v>
+        <v>95.43253096692641</v>
       </c>
       <c r="D13" t="n">
-        <v>33.06011150167195</v>
+        <v>6.496330469911655</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2721611431097039</v>
+        <v>1.870514945180374</v>
       </c>
     </row>
     <row r="14">
@@ -740,15 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>27.00578038334248</v>
+        <v>27.7697546425555</v>
       </c>
       <c r="D14" t="n">
-        <v>29.38631743688812</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>1.110397728979911</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.4004580786071991</v>
       </c>
     </row>
     <row r="15">
@@ -763,15 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>27.14744542918005</v>
+        <v>83.44731746479643</v>
       </c>
       <c r="D15" t="n">
-        <v>30.21180489343276</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>5.036792272488454</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.520093258168556</v>
       </c>
     </row>
     <row r="16">
@@ -786,15 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>28.20333766505286</v>
+        <v>98.49367253922532</v>
       </c>
       <c r="D16" t="n">
-        <v>32.44831740619655</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>6.838678261078946</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.042850995087911</v>
       </c>
     </row>
     <row r="17">
@@ -809,15 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>33.05050040370692</v>
+        <v>96.08330267903769</v>
       </c>
       <c r="D17" t="n">
-        <v>41.43349602763438</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>6.515409938900028</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.949077373659956</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_gru.xlsx
+++ b/Modelos em Python/resultados_erros_gru.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30.54059320237301</v>
+        <v>36.39023909370392</v>
       </c>
       <c r="D2" t="n">
-        <v>1.228841490949666</v>
+        <v>1.468088486870843</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4351497595535802</v>
+        <v>0.6531363624370612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -493,19 +493,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>84.90143130359819</v>
+        <v>83.66865105592788</v>
       </c>
       <c r="D3" t="n">
-        <v>5.121037967311935</v>
+        <v>4.928080677275409</v>
       </c>
       <c r="E3" t="n">
-        <v>1.562405698010106</v>
+        <v>1.700149963501345</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -514,19 +514,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>99.58185432941721</v>
+        <v>98.04519864705365</v>
       </c>
       <c r="D4" t="n">
-        <v>6.896150302989961</v>
+        <v>6.61924225489825</v>
       </c>
       <c r="E4" t="n">
-        <v>2.084137334744235</v>
+        <v>2.225005876286074</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -535,19 +535,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>97.07998675015136</v>
+        <v>103.5040106102525</v>
       </c>
       <c r="D5" t="n">
-        <v>6.558210006026544</v>
+        <v>7.393736032402326</v>
       </c>
       <c r="E5" t="n">
-        <v>1.98458572697895</v>
+        <v>2.466139339714567</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -556,19 +556,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26.09839018985168</v>
+        <v>15.62709250276704</v>
       </c>
       <c r="D6" t="n">
-        <v>1.046888454574527</v>
+        <v>0.5335195454010067</v>
       </c>
       <c r="E6" t="n">
-        <v>0.401654651464282</v>
+        <v>0.3371145534547069</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>81.75188874831058</v>
+        <v>72.71228467364892</v>
       </c>
       <c r="D7" t="n">
-        <v>4.961255529251965</v>
+        <v>4.032967436998454</v>
       </c>
       <c r="E7" t="n">
-        <v>1.495208276832587</v>
+        <v>1.422778225245697</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -598,19 +598,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>96.85839712280588</v>
+        <v>93.59964033338741</v>
       </c>
       <c r="D8" t="n">
-        <v>6.754451672777985</v>
+        <v>6.248063338614698</v>
       </c>
       <c r="E8" t="n">
-        <v>2.007943520402044</v>
+        <v>2.089582447270076</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -619,19 +619,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>94.39150120947082</v>
+        <v>100.9882485362065</v>
       </c>
       <c r="D9" t="n">
-        <v>6.427064206925306</v>
+        <v>7.255918644024252</v>
       </c>
       <c r="E9" t="n">
-        <v>1.914416663937868</v>
+        <v>2.395045466696547</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -640,19 +640,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>22.67756000276502</v>
+        <v>30.03046300141031</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8959507473413723</v>
+        <v>1.109447424721825</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2946726842159823</v>
+        <v>0.5691145253757078</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -661,19 +661,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>81.68063689953493</v>
+        <v>83.87346396708452</v>
       </c>
       <c r="D11" t="n">
-        <v>4.909030480971784</v>
+        <v>4.795402943723502</v>
       </c>
       <c r="E11" t="n">
-        <v>1.420328175592844</v>
+        <v>1.71569675069187</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -682,19 +682,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>97.56718032637512</v>
+        <v>99.74915910168367</v>
       </c>
       <c r="D12" t="n">
-        <v>6.780445051998355</v>
+        <v>6.641817849556184</v>
       </c>
       <c r="E12" t="n">
-        <v>1.951253697491332</v>
+        <v>2.308597486928907</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -703,19 +703,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>95.43253096692641</v>
+        <v>105.6329029128861</v>
       </c>
       <c r="D13" t="n">
-        <v>6.496330469911655</v>
+        <v>7.484365000318519</v>
       </c>
       <c r="E13" t="n">
-        <v>1.870514945180374</v>
+        <v>2.580020797834873</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -724,19 +724,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>27.7697546425555</v>
+        <v>17.18931420641271</v>
       </c>
       <c r="D14" t="n">
-        <v>1.110397728979911</v>
+        <v>0.5714058081195611</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4004580786071991</v>
+        <v>0.3102445974604754</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -745,19 +745,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>83.44731746479643</v>
+        <v>74.53495475798296</v>
       </c>
       <c r="D15" t="n">
-        <v>5.036792272488454</v>
+        <v>4.079447520396955</v>
       </c>
       <c r="E15" t="n">
-        <v>1.520093258168556</v>
+        <v>1.445943706471878</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -766,19 +766,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>98.49367253922532</v>
+        <v>95.4982038954692</v>
       </c>
       <c r="D16" t="n">
-        <v>6.838678261078946</v>
+        <v>6.320125657984716</v>
       </c>
       <c r="E16" t="n">
-        <v>2.042850995087911</v>
+        <v>2.137273015669452</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>96.08330267903769</v>
+        <v>102.8776295148838</v>
       </c>
       <c r="D17" t="n">
-        <v>6.515409938900028</v>
+        <v>7.339757389999691</v>
       </c>
       <c r="E17" t="n">
-        <v>1.949077373659956</v>
+        <v>2.453636079524562</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_gru.xlsx
+++ b/Modelos em Python/resultados_erros_gru.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36.39023909370392</v>
+        <v>36.36150906591655</v>
       </c>
       <c r="D2" t="n">
-        <v>1.468088486870843</v>
+        <v>1.466551317683396</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6531363624370612</v>
+        <v>0.6527411800505089</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>83.66865105592788</v>
+        <v>84.18101546254645</v>
       </c>
       <c r="D3" t="n">
-        <v>4.928080677275409</v>
+        <v>4.981043174243245</v>
       </c>
       <c r="E3" t="n">
-        <v>1.700149963501345</v>
+        <v>1.7165941275787</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>98.04519864705365</v>
+        <v>98.74823171981164</v>
       </c>
       <c r="D4" t="n">
-        <v>6.61924225489825</v>
+        <v>6.714201964331655</v>
       </c>
       <c r="E4" t="n">
-        <v>2.225005876286074</v>
+        <v>2.254613326828656</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>103.5040106102525</v>
+        <v>104.2608465366712</v>
       </c>
       <c r="D5" t="n">
-        <v>7.393736032402326</v>
+        <v>7.508003881420596</v>
       </c>
       <c r="E5" t="n">
-        <v>2.466139339714567</v>
+        <v>2.501808951851636</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15.62709250276704</v>
+        <v>15.70542683387458</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5335195454010067</v>
+        <v>0.5362247711740928</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3371145534547069</v>
+        <v>0.3355162334868637</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>72.71228467364892</v>
+        <v>73.12279657166101</v>
       </c>
       <c r="D7" t="n">
-        <v>4.032967436998454</v>
+        <v>4.069324224728106</v>
       </c>
       <c r="E7" t="n">
-        <v>1.422778225245697</v>
+        <v>1.43305307487514</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>93.59964033338741</v>
+        <v>94.28670190243854</v>
       </c>
       <c r="D8" t="n">
-        <v>6.248063338614698</v>
+        <v>6.335637497577645</v>
       </c>
       <c r="E8" t="n">
-        <v>2.089582447270076</v>
+        <v>2.115410781173883</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>100.9882485362065</v>
+        <v>101.75741610846</v>
       </c>
       <c r="D9" t="n">
-        <v>7.255918644024252</v>
+        <v>7.369343718161301</v>
       </c>
       <c r="E9" t="n">
-        <v>2.395045466696547</v>
+        <v>2.428734026256445</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>30.03046300141031</v>
+        <v>29.922038535013</v>
       </c>
       <c r="D10" t="n">
-        <v>1.109447424721825</v>
+        <v>1.104328912761422</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5691145253757078</v>
+        <v>0.5675916912186395</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>83.87346396708452</v>
+        <v>84.3544417774075</v>
       </c>
       <c r="D11" t="n">
-        <v>4.795402943723502</v>
+        <v>4.843715743633664</v>
       </c>
       <c r="E11" t="n">
-        <v>1.71569675069187</v>
+        <v>1.731083293151733</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>99.74915910168367</v>
+        <v>100.4389490667564</v>
       </c>
       <c r="D12" t="n">
-        <v>6.641817849556184</v>
+        <v>6.735219298505414</v>
       </c>
       <c r="E12" t="n">
-        <v>2.308597486928907</v>
+        <v>2.338574988030843</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>105.6329029128861</v>
+        <v>106.3822134521402</v>
       </c>
       <c r="D13" t="n">
-        <v>7.484365000318519</v>
+        <v>7.599051639686737</v>
       </c>
       <c r="E13" t="n">
-        <v>2.580020797834873</v>
+        <v>2.616895699428039</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17.18931420641271</v>
+        <v>17.25760051424627</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5714058081195611</v>
+        <v>0.5736903787992709</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3102445974604754</v>
+        <v>0.3088107396704822</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>74.53495475798296</v>
+        <v>74.93860575571506</v>
       </c>
       <c r="D15" t="n">
-        <v>4.079447520396955</v>
+        <v>4.115327417891315</v>
       </c>
       <c r="E15" t="n">
-        <v>1.445943706471878</v>
+        <v>1.456677596416401</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>95.4982038954692</v>
+        <v>96.17756080791419</v>
       </c>
       <c r="D16" t="n">
-        <v>6.320125657984716</v>
+        <v>6.407690467137532</v>
       </c>
       <c r="E16" t="n">
-        <v>2.137273015669452</v>
+        <v>2.16410394489152</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>102.8776295148838</v>
+        <v>103.6384942670921</v>
       </c>
       <c r="D17" t="n">
-        <v>7.339757389999691</v>
+        <v>7.45352067985895</v>
       </c>
       <c r="E17" t="n">
-        <v>2.453636079524562</v>
+        <v>2.488643512176773</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_gru.xlsx
+++ b/Modelos em Python/resultados_erros_gru.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35.48413206795766</v>
+        <v>36.19487244375888</v>
       </c>
       <c r="D2" t="n">
-        <v>1.421231051263788</v>
+        <v>1.457910560675898</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6396879871241692</v>
+        <v>0.6502631452847072</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>83.21917004845733</v>
+        <v>84.30295983926867</v>
       </c>
       <c r="D3" t="n">
-        <v>4.881832867040714</v>
+        <v>4.993739220757559</v>
       </c>
       <c r="E3" t="n">
-        <v>1.685692937634545</v>
+        <v>1.720508521098747</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>97.77961979139602</v>
+        <v>99.15959100755732</v>
       </c>
       <c r="D4" t="n">
-        <v>6.583549561248572</v>
+        <v>6.770437697239473</v>
       </c>
       <c r="E4" t="n">
-        <v>2.213738148320806</v>
+        <v>2.272098491608395</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>103.3837237140827</v>
+        <v>104.8930149660162</v>
       </c>
       <c r="D5" t="n">
-        <v>7.37558768587578</v>
+        <v>7.604933343047129</v>
       </c>
       <c r="E5" t="n">
-        <v>2.460318355916807</v>
+        <v>2.532000354467413</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16.00503616299655</v>
+        <v>15.74710978854295</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5465120147543079</v>
+        <v>0.5376597352301823</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3319050810934969</v>
+        <v>0.3353329745511274</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>72.17338996245307</v>
+        <v>73.14645031254526</v>
       </c>
       <c r="D7" t="n">
-        <v>3.985229860257803</v>
+        <v>4.071393691373229</v>
       </c>
       <c r="E7" t="n">
-        <v>1.407570895686816</v>
+        <v>1.434124984223837</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>93.30111215624289</v>
+        <v>94.64702458822532</v>
       </c>
       <c r="D8" t="n">
-        <v>6.2100007879954</v>
+        <v>6.382050700064777</v>
       </c>
       <c r="E8" t="n">
-        <v>2.076963608103485</v>
+        <v>2.130000627062434</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>100.8585759203739</v>
+        <v>102.387486569015</v>
       </c>
       <c r="D9" t="n">
-        <v>7.236608780165102</v>
+        <v>7.463682462841652</v>
       </c>
       <c r="E9" t="n">
-        <v>2.388016013974437</v>
+        <v>2.457952121525947</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>29.06317063733817</v>
+        <v>29.74675515893447</v>
       </c>
       <c r="D10" t="n">
-        <v>1.064521553270485</v>
+        <v>1.096190647256651</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5564659401515362</v>
+        <v>0.5654495340558373</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>83.42329474777982</v>
+        <v>84.44197582814206</v>
       </c>
       <c r="D11" t="n">
-        <v>4.750201105634096</v>
+        <v>4.852622815263159</v>
       </c>
       <c r="E11" t="n">
-        <v>1.701247841969612</v>
+        <v>1.734114704016488</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>99.49506249424019</v>
+        <v>100.8249103950408</v>
       </c>
       <c r="D12" t="n">
-        <v>6.607370009676952</v>
+        <v>6.788222102695127</v>
       </c>
       <c r="E12" t="n">
-        <v>2.297505267308733</v>
+        <v>2.355853470222038</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>105.5277207436947</v>
+        <v>106.9982911561998</v>
       </c>
       <c r="D13" t="n">
-        <v>7.468046843155131</v>
+        <v>7.694990497193334</v>
       </c>
       <c r="E13" t="n">
-        <v>2.574748854938962</v>
+        <v>2.648066820680601</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17.52111785959432</v>
+        <v>17.29258008135429</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5825042650792414</v>
+        <v>0.5748564073544443</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3052339117793684</v>
+        <v>0.3083047047742967</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>73.99711839257088</v>
+        <v>74.95718845052389</v>
       </c>
       <c r="D15" t="n">
-        <v>4.031633785000649</v>
+        <v>4.116969890558289</v>
       </c>
       <c r="E15" t="n">
-        <v>1.430867052885112</v>
+        <v>1.457237335470151</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>95.20143326502487</v>
+        <v>96.52964690643104</v>
       </c>
       <c r="D16" t="n">
-        <v>6.281887730695167</v>
+        <v>6.453599443440839</v>
       </c>
       <c r="E16" t="n">
-        <v>2.124931194049614</v>
+        <v>2.178397940324242</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>102.7484614379606</v>
+        <v>104.2582044406843</v>
       </c>
       <c r="D17" t="n">
-        <v>7.320294707071263</v>
+        <v>7.547674934466181</v>
       </c>
       <c r="E17" t="n">
-        <v>2.447065952279119</v>
+        <v>2.517956161378621</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_gru.xlsx
+++ b/Modelos em Python/resultados_erros_gru.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36.19487244375888</v>
+        <v>36.25458973421789</v>
       </c>
       <c r="D2" t="n">
-        <v>1.457910560675898</v>
+        <v>1.461034664725509</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6502631452847072</v>
+        <v>0.6513112948902454</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>84.30295983926867</v>
+        <v>83.77524195021776</v>
       </c>
       <c r="D3" t="n">
-        <v>4.993739220757559</v>
+        <v>4.93907871784675</v>
       </c>
       <c r="E3" t="n">
-        <v>1.720508521098747</v>
+        <v>1.703782175622004</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>99.15959100755732</v>
+        <v>98.17366356503223</v>
       </c>
       <c r="D4" t="n">
-        <v>6.770437697239473</v>
+        <v>6.63652445656569</v>
       </c>
       <c r="E4" t="n">
-        <v>2.272098491608395</v>
+        <v>2.230639883493151</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>104.8930149660162</v>
+        <v>103.6608051158953</v>
       </c>
       <c r="D5" t="n">
-        <v>7.604933343047129</v>
+        <v>7.417297874737942</v>
       </c>
       <c r="E5" t="n">
-        <v>2.532000354467413</v>
+        <v>2.473751635814303</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15.74710978854295</v>
+        <v>15.7254809967866</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5376597352301823</v>
+        <v>0.5369037950426675</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3353329745511274</v>
+        <v>0.3343803021877362</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>73.14645031254526</v>
+        <v>72.80235440445358</v>
       </c>
       <c r="D7" t="n">
-        <v>4.071393691373229</v>
+        <v>4.040785003517978</v>
       </c>
       <c r="E7" t="n">
-        <v>1.434124984223837</v>
+        <v>1.423433451902168</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>94.64702458822532</v>
+        <v>93.73573715771599</v>
       </c>
       <c r="D8" t="n">
-        <v>6.382050700064777</v>
+        <v>6.265105634706655</v>
       </c>
       <c r="E8" t="n">
-        <v>2.130000627062434</v>
+        <v>2.092771658902968</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>102.387486569015</v>
+        <v>101.1514080650824</v>
       </c>
       <c r="D9" t="n">
-        <v>7.463682462841652</v>
+        <v>7.279582951069785</v>
       </c>
       <c r="E9" t="n">
-        <v>2.457952121525947</v>
+        <v>2.400097893284638</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>29.74675515893447</v>
+        <v>29.85256207911132</v>
       </c>
       <c r="D10" t="n">
-        <v>1.096190647256651</v>
+        <v>1.101119914154009</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5654495340558373</v>
+        <v>0.5669229478727149</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>84.44197582814206</v>
+        <v>83.99500104827737</v>
       </c>
       <c r="D11" t="n">
-        <v>4.852622815263159</v>
+        <v>4.807474237532213</v>
       </c>
       <c r="E11" t="n">
-        <v>1.734114704016488</v>
+        <v>1.719755546326501</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>100.8249103950408</v>
+        <v>99.89598006568967</v>
       </c>
       <c r="D12" t="n">
-        <v>6.788222102695127</v>
+        <v>6.661433870433741</v>
       </c>
       <c r="E12" t="n">
-        <v>2.355853470222038</v>
+        <v>2.315127272009743</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>106.9982911561998</v>
+        <v>105.8063214507689</v>
       </c>
       <c r="D13" t="n">
-        <v>7.694990497193334</v>
+        <v>7.510569078408111</v>
       </c>
       <c r="E13" t="n">
-        <v>2.648066820680601</v>
+        <v>2.588693007758801</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17.29258008135429</v>
+        <v>17.27670714230465</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5748564073544443</v>
+        <v>0.5743254536009994</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3083047047742967</v>
+        <v>0.3081796096287105</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>74.95718845052389</v>
+        <v>74.6181838316076</v>
       </c>
       <c r="D15" t="n">
-        <v>4.116969890558289</v>
+        <v>4.08668438283538</v>
       </c>
       <c r="E15" t="n">
-        <v>1.457237335470151</v>
+        <v>1.447505318613801</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>96.52964690643104</v>
+        <v>95.62835357623929</v>
       </c>
       <c r="D16" t="n">
-        <v>6.453599443440839</v>
+        <v>6.33659588502104</v>
       </c>
       <c r="E16" t="n">
-        <v>2.178397940324242</v>
+        <v>2.141614520617494</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>104.2582044406843</v>
+        <v>103.0342765115657</v>
       </c>
       <c r="D17" t="n">
-        <v>7.547674934466181</v>
+        <v>7.362786598686431</v>
       </c>
       <c r="E17" t="n">
-        <v>2.517956161378621</v>
+        <v>2.459971510599476</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_gru.xlsx
+++ b/Modelos em Python/resultados_erros_gru.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36.25458973421789</v>
+        <v>36.17292876981041</v>
       </c>
       <c r="D2" t="n">
-        <v>1.461034664725509</v>
+        <v>1.45677377816929</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6513112948902454</v>
+        <v>0.6498914980606657</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>83.77524195021776</v>
+        <v>84.03869630860346</v>
       </c>
       <c r="D3" t="n">
-        <v>4.93907871784675</v>
+        <v>4.966279990925528</v>
       </c>
       <c r="E3" t="n">
-        <v>1.703782175622004</v>
+        <v>1.711962661243274</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>98.17366356503223</v>
+        <v>98.71396685917283</v>
       </c>
       <c r="D4" t="n">
-        <v>6.63652445656569</v>
+        <v>6.709564543741117</v>
       </c>
       <c r="E4" t="n">
-        <v>2.230639883493151</v>
+        <v>2.253108444396863</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>103.6608051158953</v>
+        <v>104.368382424632</v>
       </c>
       <c r="D5" t="n">
-        <v>7.417297874737942</v>
+        <v>7.524432369915991</v>
       </c>
       <c r="E5" t="n">
-        <v>2.473751635814303</v>
+        <v>2.506866925082536</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15.7254809967866</v>
+        <v>15.75769795244564</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5369037950426675</v>
+        <v>0.5380238446646007</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3343803021877362</v>
+        <v>0.3346500973557405</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>72.80235440445358</v>
+        <v>72.95262827441341</v>
       </c>
       <c r="D7" t="n">
-        <v>4.040785003517978</v>
+        <v>4.054159648148125</v>
       </c>
       <c r="E7" t="n">
-        <v>1.423433451902168</v>
+        <v>1.428232115434517</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>93.73573715771599</v>
+        <v>94.22708603761248</v>
       </c>
       <c r="D8" t="n">
-        <v>6.265105634706655</v>
+        <v>6.327960744236548</v>
       </c>
       <c r="E8" t="n">
-        <v>2.092771658902968</v>
+        <v>2.112779979928838</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>101.1514080650824</v>
+        <v>101.8559750543742</v>
       </c>
       <c r="D9" t="n">
-        <v>7.279582951069785</v>
+        <v>7.384013619047846</v>
       </c>
       <c r="E9" t="n">
-        <v>2.400097893284638</v>
+        <v>2.432864053927482</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>29.85256207911132</v>
+        <v>29.74085476863527</v>
       </c>
       <c r="D10" t="n">
-        <v>1.101119914154009</v>
+        <v>1.095933134780336</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5669229478727149</v>
+        <v>0.5655222961285605</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>83.99500104827737</v>
+        <v>84.20334684698022</v>
       </c>
       <c r="D11" t="n">
-        <v>4.807474237532213</v>
+        <v>4.828544103608441</v>
       </c>
       <c r="E11" t="n">
-        <v>1.719755546326501</v>
+        <v>1.726638698207577</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>99.89598006568967</v>
+        <v>100.3954115521607</v>
       </c>
       <c r="D12" t="n">
-        <v>6.661433870433741</v>
+        <v>6.729408468754983</v>
       </c>
       <c r="E12" t="n">
-        <v>2.315127272009743</v>
+        <v>2.337203587263744</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>105.8063214507689</v>
+        <v>106.4825572512114</v>
       </c>
       <c r="D13" t="n">
-        <v>7.510569078408111</v>
+        <v>7.614736234417654</v>
       </c>
       <c r="E13" t="n">
-        <v>2.588693007758801</v>
+        <v>2.622500750345188</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17.27670714230465</v>
+        <v>17.29563994285053</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5743254536009994</v>
+        <v>0.5749598961757642</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3081796096287105</v>
+        <v>0.3080295528796452</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>74.6181838316076</v>
+        <v>74.76909605379241</v>
       </c>
       <c r="D15" t="n">
-        <v>4.08668438283538</v>
+        <v>4.100125539515092</v>
       </c>
       <c r="E15" t="n">
-        <v>1.447505318613801</v>
+        <v>1.45177500809453</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>95.62835357623929</v>
+        <v>96.11744991431425</v>
       </c>
       <c r="D16" t="n">
-        <v>6.33659588502104</v>
+        <v>6.399808835219934</v>
       </c>
       <c r="E16" t="n">
-        <v>2.141614520617494</v>
+        <v>2.161380518146661</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>103.0342765115657</v>
+        <v>103.7349941224868</v>
       </c>
       <c r="D17" t="n">
-        <v>7.362786598686431</v>
+        <v>7.468030208560814</v>
       </c>
       <c r="E17" t="n">
-        <v>2.459971510599476</v>
+        <v>2.492844867795614</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_gru.xlsx
+++ b/Modelos em Python/resultados_erros_gru.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36.17292876981041</v>
+        <v>36.25091990618305</v>
       </c>
       <c r="D2" t="n">
-        <v>1.45677377816929</v>
+        <v>1.460839969372924</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6498914980606657</v>
+        <v>0.6511274766811151</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>84.03869630860346</v>
+        <v>83.95678150935612</v>
       </c>
       <c r="D3" t="n">
-        <v>4.966279990925528</v>
+        <v>4.957845431679227</v>
       </c>
       <c r="E3" t="n">
-        <v>1.711962661243274</v>
+        <v>1.70943842390823</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>98.71396685917283</v>
+        <v>98.3986542621773</v>
       </c>
       <c r="D4" t="n">
-        <v>6.709564543741117</v>
+        <v>6.666871678930033</v>
       </c>
       <c r="E4" t="n">
-        <v>2.253108444396863</v>
+        <v>2.239920152931994</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>104.368382424632</v>
+        <v>103.7855849112602</v>
       </c>
       <c r="D5" t="n">
-        <v>7.524432369915991</v>
+        <v>7.436086919536845</v>
       </c>
       <c r="E5" t="n">
-        <v>2.506866925082536</v>
+        <v>2.479440054904786</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15.75769795244564</v>
+        <v>15.73990101656658</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5380238446646007</v>
+        <v>0.5374104092618642</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3346500973557405</v>
+        <v>0.3350789506473397</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>72.95262827441341</v>
+        <v>72.93184594124502</v>
       </c>
       <c r="D7" t="n">
-        <v>4.054159648148125</v>
+        <v>4.052355019599965</v>
       </c>
       <c r="E7" t="n">
-        <v>1.428232115434517</v>
+        <v>1.427948224453832</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>94.22708603761248</v>
+        <v>93.9563020897548</v>
       </c>
       <c r="D8" t="n">
-        <v>6.327960744236548</v>
+        <v>6.293335841764215</v>
       </c>
       <c r="E8" t="n">
-        <v>2.112779979928838</v>
+        <v>2.102573900188805</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>101.8559750543742</v>
+        <v>101.2819091085161</v>
       </c>
       <c r="D9" t="n">
-        <v>7.384013619047846</v>
+        <v>7.298930210137018</v>
       </c>
       <c r="E9" t="n">
-        <v>2.432864053927482</v>
+        <v>2.40733443898336</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>29.74085476863527</v>
+        <v>29.82547403698729</v>
       </c>
       <c r="D10" t="n">
-        <v>1.095933134780336</v>
+        <v>1.099891832202394</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5655222961285605</v>
+        <v>0.5666115913881509</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>84.20334684698022</v>
+        <v>84.15224094323781</v>
       </c>
       <c r="D11" t="n">
-        <v>4.828544103608441</v>
+        <v>4.823488415186618</v>
       </c>
       <c r="E11" t="n">
-        <v>1.726638698207577</v>
+        <v>1.725011963321441</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>100.3954115521607</v>
+        <v>100.1094308218557</v>
       </c>
       <c r="D12" t="n">
-        <v>6.729408468754983</v>
+        <v>6.690617197929379</v>
       </c>
       <c r="E12" t="n">
-        <v>2.337203587263744</v>
+        <v>2.324708723729225</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>106.4825572512114</v>
+        <v>105.9241115324454</v>
       </c>
       <c r="D13" t="n">
-        <v>7.614736234417654</v>
+        <v>7.528892676586333</v>
       </c>
       <c r="E13" t="n">
-        <v>2.622500750345188</v>
+        <v>2.594817987662482</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17.29563994285053</v>
+        <v>17.28423675230141</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5749598961757642</v>
+        <v>0.5745843032453855</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3080295528796452</v>
+        <v>0.3083899473037413</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>74.76909605379241</v>
+        <v>74.75391995431531</v>
       </c>
       <c r="D15" t="n">
-        <v>4.100125539515092</v>
+        <v>4.098839939484217</v>
       </c>
       <c r="E15" t="n">
-        <v>1.45177500809453</v>
+        <v>1.451586022013361</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>96.11744991431425</v>
+        <v>95.85487544484238</v>
       </c>
       <c r="D16" t="n">
-        <v>6.399808835219934</v>
+        <v>6.365884742995618</v>
       </c>
       <c r="E16" t="n">
-        <v>2.161380518146661</v>
+        <v>2.151101554313277</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>103.7349941224868</v>
+        <v>103.1721652437959</v>
       </c>
       <c r="D17" t="n">
-        <v>7.468030208560814</v>
+        <v>7.383463335253579</v>
       </c>
       <c r="E17" t="n">
-        <v>2.492844867795614</v>
+        <v>2.466831138790585</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_gru.xlsx
+++ b/Modelos em Python/resultados_erros_gru.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36.25091990618305</v>
+        <v>35.92314836138604</v>
       </c>
       <c r="D2" t="n">
-        <v>1.460839969372924</v>
+        <v>1.443854631493882</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6511274766811151</v>
+        <v>0.6462766030983026</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>83.95678150935612</v>
+        <v>83.88857913207018</v>
       </c>
       <c r="D3" t="n">
-        <v>4.957845431679227</v>
+        <v>4.950707777945839</v>
       </c>
       <c r="E3" t="n">
-        <v>1.70943842390823</v>
+        <v>1.707200645126078</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>98.3986542621773</v>
+        <v>98.58349317111201</v>
       </c>
       <c r="D4" t="n">
-        <v>6.666871678930033</v>
+        <v>6.691801304258087</v>
       </c>
       <c r="E4" t="n">
-        <v>2.239920152931994</v>
+        <v>2.247640135053602</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>103.7855849112602</v>
+        <v>104.3049332562212</v>
       </c>
       <c r="D5" t="n">
-        <v>7.436086919536845</v>
+        <v>7.514712993552187</v>
       </c>
       <c r="E5" t="n">
-        <v>2.479440054904786</v>
+        <v>2.503901254730116</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15.73990101656658</v>
+        <v>15.86042211193656</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5374104092618642</v>
+        <v>0.5415505765054488</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3350789506473397</v>
+        <v>0.3332428853927568</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>72.93184594124502</v>
+        <v>72.78963782062702</v>
       </c>
       <c r="D7" t="n">
-        <v>4.052355019599965</v>
+        <v>4.039644818932288</v>
       </c>
       <c r="E7" t="n">
-        <v>1.427948224453832</v>
+        <v>1.423487903300448</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>93.9563020897548</v>
+        <v>94.09221634221294</v>
       </c>
       <c r="D8" t="n">
-        <v>6.293335841764215</v>
+        <v>6.310603149664681</v>
       </c>
       <c r="E8" t="n">
-        <v>2.102573900188805</v>
+        <v>2.107005538682284</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>101.2819091085161</v>
+        <v>101.7840268108259</v>
       </c>
       <c r="D9" t="n">
-        <v>7.298930210137018</v>
+        <v>7.373217639926271</v>
       </c>
       <c r="E9" t="n">
-        <v>2.40733443898336</v>
+        <v>2.428999713719391</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>29.82547403698729</v>
+        <v>29.47853024442441</v>
       </c>
       <c r="D10" t="n">
-        <v>1.099891832202394</v>
+        <v>1.083713257113526</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5666115913881509</v>
+        <v>0.5616778459300542</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>84.15224094323781</v>
+        <v>84.05777021766421</v>
       </c>
       <c r="D11" t="n">
-        <v>4.823488415186618</v>
+        <v>4.813713616951602</v>
       </c>
       <c r="E11" t="n">
-        <v>1.725011963321441</v>
+        <v>1.721389871466379</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>100.1094308218557</v>
+        <v>100.2709744816782</v>
       </c>
       <c r="D12" t="n">
-        <v>6.690617197929379</v>
+        <v>6.712216618009553</v>
       </c>
       <c r="E12" t="n">
-        <v>2.324708723729225</v>
+        <v>2.331076796254749</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>105.9241115324454</v>
+        <v>106.4226290803689</v>
       </c>
       <c r="D13" t="n">
-        <v>7.528892676586333</v>
+        <v>7.605202484072542</v>
       </c>
       <c r="E13" t="n">
-        <v>2.594817987662482</v>
+        <v>2.618796228925455</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17.28423675230141</v>
+        <v>17.38537822188053</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5745843032453855</v>
+        <v>0.5779679661036055</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3083899473037413</v>
+        <v>0.3067768950841683</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>74.75391995431531</v>
+        <v>74.60362588218629</v>
       </c>
       <c r="D15" t="n">
-        <v>4.098839939484217</v>
+        <v>4.085377661792156</v>
       </c>
       <c r="E15" t="n">
-        <v>1.451586022013361</v>
+        <v>1.447193000668156</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>95.85487544484238</v>
+        <v>95.98099412138511</v>
       </c>
       <c r="D16" t="n">
-        <v>6.365884742995618</v>
+        <v>6.382114335773824</v>
       </c>
       <c r="E16" t="n">
-        <v>2.151101554313277</v>
+        <v>2.155810949494425</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>103.1721652437959</v>
+        <v>103.6605022195578</v>
       </c>
       <c r="D17" t="n">
-        <v>7.383463335253579</v>
+        <v>7.456775347203537</v>
       </c>
       <c r="E17" t="n">
-        <v>2.466831138790585</v>
+        <v>2.489247621599488</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_gru.xlsx
+++ b/Modelos em Python/resultados_erros_gru.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35.89324421084959</v>
+        <v>36.46918885871476</v>
       </c>
       <c r="D2" t="n">
-        <v>1.442327931827057</v>
+        <v>1.472121949657294</v>
       </c>
       <c r="E2" t="n">
-        <v>0.645893287089326</v>
+        <v>0.6543154463194752</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>83.74733586266798</v>
+        <v>84.16368795198341</v>
       </c>
       <c r="D3" t="n">
-        <v>4.936161427918474</v>
+        <v>4.979188258647675</v>
       </c>
       <c r="E3" t="n">
-        <v>1.702748628133801</v>
+        <v>1.715992374113498</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>98.05923258758756</v>
+        <v>98.09355643927942</v>
       </c>
       <c r="D4" t="n">
-        <v>6.621084348472876</v>
+        <v>6.625573023278958</v>
       </c>
       <c r="E4" t="n">
-        <v>2.225665079895206</v>
+        <v>2.226983111152717</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>104.8158089154355</v>
+        <v>104.5579501356124</v>
       </c>
       <c r="D5" t="n">
-        <v>7.593069140510417</v>
+        <v>7.553302030604905</v>
       </c>
       <c r="E5" t="n">
-        <v>2.528307109730696</v>
+        <v>2.515832323882148</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15.84390228381969</v>
+        <v>15.69424054216561</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5409898937417456</v>
+        <v>0.5358356525967369</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3341486879625735</v>
+        <v>0.3353185564083832</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>72.76949284124197</v>
+        <v>73.29207927629001</v>
       </c>
       <c r="D7" t="n">
-        <v>4.037910715298256</v>
+        <v>4.084346875267744</v>
       </c>
       <c r="E7" t="n">
-        <v>1.423885380124653</v>
+        <v>1.437048145019796</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>93.57873458895192</v>
+        <v>93.70605356839712</v>
       </c>
       <c r="D8" t="n">
-        <v>6.245231385951671</v>
+        <v>6.261252463748297</v>
       </c>
       <c r="E8" t="n">
-        <v>2.088183991557486</v>
+        <v>2.092192733895459</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>102.1144058905565</v>
+        <v>101.8617731762936</v>
       </c>
       <c r="D9" t="n">
-        <v>7.422717364802206</v>
+        <v>7.384740048756907</v>
       </c>
       <c r="E9" t="n">
-        <v>2.444995698958306</v>
+        <v>2.432537008970626</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>29.43651713500517</v>
+        <v>29.98925823919237</v>
       </c>
       <c r="D10" t="n">
-        <v>1.081807863843524</v>
+        <v>1.107457798060912</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5614469451031142</v>
+        <v>0.5686251059027378</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>83.96136348430149</v>
+        <v>84.4094859571705</v>
       </c>
       <c r="D11" t="n">
-        <v>4.804167584307671</v>
+        <v>4.84928127653104</v>
       </c>
       <c r="E11" t="n">
-        <v>1.718728259043048</v>
+        <v>1.733103672371322</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>99.75262090230174</v>
+        <v>99.8184857090373</v>
       </c>
       <c r="D12" t="n">
-        <v>6.642221151931986</v>
+        <v>6.650974223626374</v>
       </c>
       <c r="E12" t="n">
-        <v>2.30905571928899</v>
+        <v>2.31180820694208</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>106.8616874242364</v>
+        <v>106.6150980006024</v>
       </c>
       <c r="D13" t="n">
-        <v>7.673753690680726</v>
+        <v>7.635196734874335</v>
       </c>
       <c r="E13" t="n">
-        <v>2.641515705325088</v>
+        <v>2.629020489526295</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17.36798743083058</v>
+        <v>17.24620026914983</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5773870740942644</v>
+        <v>0.5733091557234093</v>
       </c>
       <c r="E14" t="n">
-        <v>0.307283401940251</v>
+        <v>0.3088291976052599</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>74.59438329988643</v>
+        <v>75.10971636419636</v>
       </c>
       <c r="D15" t="n">
-        <v>4.084600472903364</v>
+        <v>4.130615121132298</v>
       </c>
       <c r="E15" t="n">
-        <v>1.447311356887458</v>
+        <v>1.461210178168032</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>95.48271929153528</v>
+        <v>95.60733064989418</v>
       </c>
       <c r="D16" t="n">
-        <v>6.31793700639767</v>
+        <v>6.333852365284719</v>
       </c>
       <c r="E16" t="n">
-        <v>2.136308350683257</v>
+        <v>2.140997854345491</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>103.9840119694605</v>
+        <v>103.7303502125101</v>
       </c>
       <c r="D17" t="n">
-        <v>7.505945532898314</v>
+        <v>7.467343892882151</v>
       </c>
       <c r="E17" t="n">
-        <v>2.504954346813001</v>
+        <v>2.492704826256704</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_gru.xlsx
+++ b/Modelos em Python/resultados_erros_gru.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36.46918885871476</v>
+        <v>36.25877519124764</v>
       </c>
       <c r="D2" t="n">
-        <v>1.472121949657294</v>
+        <v>1.461201450282148</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6543154463194752</v>
+        <v>0.6511550728402449</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>84.16368795198341</v>
+        <v>84.11276894320116</v>
       </c>
       <c r="D3" t="n">
-        <v>4.979188258647675</v>
+        <v>4.973899441467855</v>
       </c>
       <c r="E3" t="n">
-        <v>1.715992374113498</v>
+        <v>1.714276177805378</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>98.09355643927942</v>
+        <v>98.01657916511726</v>
       </c>
       <c r="D4" t="n">
-        <v>6.625573023278958</v>
+        <v>6.6152356883129</v>
       </c>
       <c r="E4" t="n">
-        <v>2.226983111152717</v>
+        <v>2.223667714921547</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>104.5579501356124</v>
+        <v>104.4003970696594</v>
       </c>
       <c r="D5" t="n">
-        <v>7.553302030604905</v>
+        <v>7.529196180831497</v>
       </c>
       <c r="E5" t="n">
-        <v>2.515832323882148</v>
+        <v>2.508203028779607</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15.69424054216561</v>
+        <v>15.78506592383661</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5358356525967369</v>
+        <v>0.5389668207125947</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3353185564083832</v>
+        <v>0.3344792341496212</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>73.29207927629001</v>
+        <v>73.21037009491766</v>
       </c>
       <c r="D7" t="n">
-        <v>4.084346875267744</v>
+        <v>4.077082071679388</v>
       </c>
       <c r="E7" t="n">
-        <v>1.437048145019796</v>
+        <v>1.43520375887246</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>93.70605356839712</v>
+        <v>93.64938011974706</v>
       </c>
       <c r="D8" t="n">
-        <v>6.261252463748297</v>
+        <v>6.254103728328931</v>
       </c>
       <c r="E8" t="n">
-        <v>2.092192733895459</v>
+        <v>2.090418653950405</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>101.8617731762936</v>
+        <v>101.6954270669905</v>
       </c>
       <c r="D9" t="n">
-        <v>7.384740048756907</v>
+        <v>7.360022274820166</v>
       </c>
       <c r="E9" t="n">
-        <v>2.432537008970626</v>
+        <v>2.42543631719987</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>29.98925823919237</v>
+        <v>29.75361047361251</v>
       </c>
       <c r="D10" t="n">
-        <v>1.107457798060912</v>
+        <v>1.096479364866342</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5686251059027378</v>
+        <v>0.5654127905341592</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>84.4094859571705</v>
+        <v>84.34679939836894</v>
       </c>
       <c r="D11" t="n">
-        <v>4.84928127653104</v>
+        <v>4.842895985718799</v>
       </c>
       <c r="E11" t="n">
-        <v>1.733103672371322</v>
+        <v>1.730893484423118</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>99.8184857090373</v>
+        <v>99.7446990800581</v>
       </c>
       <c r="D12" t="n">
-        <v>6.650974223626374</v>
+        <v>6.640959216486032</v>
       </c>
       <c r="E12" t="n">
-        <v>2.31180820694208</v>
+        <v>2.308372072394044</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>106.6150980006024</v>
+        <v>106.4523216521835</v>
       </c>
       <c r="D13" t="n">
-        <v>7.635196734874335</v>
+        <v>7.609865121048322</v>
       </c>
       <c r="E13" t="n">
-        <v>2.629020489526295</v>
+        <v>2.620604211797398</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17.24620026914983</v>
+        <v>17.32251721898319</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5733091557234093</v>
+        <v>0.5758604555624749</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3088291976052599</v>
+        <v>0.3077007652815839</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>75.10971636419636</v>
+        <v>75.0268372766497</v>
       </c>
       <c r="D15" t="n">
-        <v>4.130615121132298</v>
+        <v>4.123165347364964</v>
       </c>
       <c r="E15" t="n">
-        <v>1.461210178168032</v>
+        <v>1.458891224340876</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>95.60733064989418</v>
+        <v>95.55223146538472</v>
       </c>
       <c r="D16" t="n">
-        <v>6.333852365284719</v>
+        <v>6.32674634990702</v>
       </c>
       <c r="E16" t="n">
-        <v>2.140997854345491</v>
+        <v>2.138754672386034</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>103.7303502125101</v>
+        <v>103.5665843457237</v>
       </c>
       <c r="D17" t="n">
-        <v>7.467343892882151</v>
+        <v>7.442578181075038</v>
       </c>
       <c r="E17" t="n">
-        <v>2.492704826256704</v>
+        <v>2.48496184553925</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_gru.xlsx
+++ b/Modelos em Python/resultados_erros_gru.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36.25877519124764</v>
+        <v>36.10273027819454</v>
       </c>
       <c r="D2" t="n">
-        <v>1.461201450282148</v>
+        <v>1.453102665795776</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6511550728402449</v>
+        <v>0.6488502168733495</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>84.11276894320116</v>
+        <v>83.40918749756068</v>
       </c>
       <c r="D3" t="n">
-        <v>4.973899441467855</v>
+        <v>4.901238645205583</v>
       </c>
       <c r="E3" t="n">
-        <v>1.714276177805378</v>
+        <v>1.691806050442399</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>98.01657916511726</v>
+        <v>97.04598114483323</v>
       </c>
       <c r="D4" t="n">
-        <v>6.6152356883129</v>
+        <v>6.486181872472003</v>
       </c>
       <c r="E4" t="n">
-        <v>2.223667714921547</v>
+        <v>2.183553441320751</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>104.4003970696594</v>
+        <v>103.1704698802965</v>
       </c>
       <c r="D5" t="n">
-        <v>7.529196180831497</v>
+        <v>7.343673170627354</v>
       </c>
       <c r="E5" t="n">
-        <v>2.508203028779607</v>
+        <v>2.450446526614508</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15.78506592383661</v>
+        <v>15.78022998294472</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5389668207125947</v>
+        <v>0.5387977719170888</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3344792341496212</v>
+        <v>0.3343780535035782</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>73.21037009491766</v>
+        <v>72.62579798635416</v>
       </c>
       <c r="D7" t="n">
-        <v>4.077082071679388</v>
+        <v>4.025062536352007</v>
       </c>
       <c r="E7" t="n">
-        <v>1.43520375887246</v>
+        <v>1.419332130834793</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>93.64938011974706</v>
+        <v>92.71103569955159</v>
       </c>
       <c r="D8" t="n">
-        <v>6.254103728328931</v>
+        <v>6.135867001723717</v>
       </c>
       <c r="E8" t="n">
-        <v>2.090418653950405</v>
+        <v>2.054198053528142</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>101.6954270669905</v>
+        <v>100.4665128245579</v>
       </c>
       <c r="D9" t="n">
-        <v>7.360022274820166</v>
+        <v>7.179425597565015</v>
       </c>
       <c r="E9" t="n">
-        <v>2.42543631719987</v>
+        <v>2.370108734382464</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>29.75361047361251</v>
+        <v>29.65945630388209</v>
       </c>
       <c r="D10" t="n">
-        <v>1.096479364866342</v>
+        <v>1.092108920793654</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5654127905341592</v>
+        <v>0.5643203723589695</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>84.34679939836894</v>
+        <v>83.68753324958075</v>
       </c>
       <c r="D11" t="n">
-        <v>4.842895985718799</v>
+        <v>4.776581210697421</v>
       </c>
       <c r="E11" t="n">
-        <v>1.730893484423118</v>
+        <v>1.709824905626678</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>99.7446990800581</v>
+        <v>98.80187238628524</v>
       </c>
       <c r="D12" t="n">
-        <v>6.640959216486032</v>
+        <v>6.51510248260016</v>
       </c>
       <c r="E12" t="n">
-        <v>2.308372072394044</v>
+        <v>2.268022092216483</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>106.4523216521835</v>
+        <v>105.2474459512193</v>
       </c>
       <c r="D13" t="n">
-        <v>7.609865121048322</v>
+        <v>7.425706353422772</v>
       </c>
       <c r="E13" t="n">
-        <v>2.620604211797398</v>
+        <v>2.561387763605258</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17.32251721898319</v>
+        <v>17.31950436219163</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5758604555624749</v>
+        <v>0.5757628529260398</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3077007652815839</v>
+        <v>0.307753104279438</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>75.0268372766497</v>
+        <v>74.45466632699608</v>
       </c>
       <c r="D15" t="n">
-        <v>4.123165347364964</v>
+        <v>4.072078811803945</v>
       </c>
       <c r="E15" t="n">
-        <v>1.458891224340876</v>
+        <v>1.443199309140231</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>95.55223146538472</v>
+        <v>94.62806273186627</v>
       </c>
       <c r="D16" t="n">
-        <v>6.32674634990702</v>
+        <v>6.209021196444549</v>
       </c>
       <c r="E16" t="n">
-        <v>2.138754672386034</v>
+        <v>2.102237195747287</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>103.5665843457237</v>
+        <v>102.3555089074154</v>
       </c>
       <c r="D17" t="n">
-        <v>7.442578181075038</v>
+        <v>7.262206043116429</v>
       </c>
       <c r="E17" t="n">
-        <v>2.48496184553925</v>
+        <v>2.428888997082572</v>
       </c>
     </row>
   </sheetData>
